--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B7EBD-A0D5-6140-821A-2E86DEE7972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37AC9F-09D0-C444-8146-7F5E99B763C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="800" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>2019</t>
   </si>
@@ -142,19 +141,7 @@
     <t>id_sector</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>euro/tCO2</t>
-  </si>
-  <si>
-    <t>CARE (2022)</t>
-  </si>
-  <si>
-    <t>PS XI (2024)</t>
-  </si>
-  <si>
-    <t>no CO2 price</t>
   </si>
 </sst>
 </file>
@@ -317,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AJ4" totalsRowShown="0">
-  <autoFilter ref="A1:AJ4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AJ3" totalsRowShown="0">
+  <autoFilter ref="A1:AJ3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
@@ -624,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -860,222 +847,112 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1">
-        <v>25.193636363636362</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>24.660760411653786</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>51.548117521277014</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>77.25</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>77.78</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>80.12</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>86.92</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>89.92</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>92.92</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>95.92</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>98.92</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>101.92</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>104.92</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>107.92</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>110.92</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>113.92</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>116.92</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>119.92</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>122.92</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>125.92</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>128.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>131.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>134.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>137.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>140.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>143.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>146.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
-        <v>149.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <v>152.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>155.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>158.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>161.92000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1">
-        <v>25.193636363636362</v>
-      </c>
-      <c r="F4" s="1">
-        <v>24.660760411653786</v>
-      </c>
-      <c r="G4" s="1">
-        <v>26.46700332725252</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1">
-        <v>28.275000000000002</v>
-      </c>
-      <c r="J4" s="1">
-        <v>36.738650000000007</v>
-      </c>
-      <c r="K4" s="1">
-        <v>44.878557140625006</v>
-      </c>
-      <c r="L4" s="1">
-        <v>57.095061376267388</v>
-      </c>
-      <c r="M4" s="1">
-        <v>68.86542787537482</v>
-      </c>
-      <c r="N4" s="1">
-        <v>80.142141689967445</v>
-      </c>
-      <c r="O4" s="1">
-        <v>90.940240780826201</v>
-      </c>
-      <c r="P4" s="1">
-        <v>101.27435905137465</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>111.15873649478881</v>
-      </c>
-      <c r="R4" s="1">
-        <v>120.60722909684587</v>
-      </c>
-      <c r="S4" s="1">
-        <v>129.63331850022271</v>
-      </c>
-      <c r="T4" s="1">
-        <v>138.25012143582575</v>
-      </c>
-      <c r="U4" s="1">
-        <v>146.47039892660456</v>
-      </c>
-      <c r="V4" s="1">
-        <v>154.3065652691779</v>
-      </c>
-      <c r="W4" s="1">
-        <v>161.77069679847767</v>
-      </c>
-      <c r="X4" s="1">
-        <v>168.87454044049778</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>175.62952205811769</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>182.04675459485659</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>188.13704602130269</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>193.91090708885301</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>199.37855889529283</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>204.54994026663948</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>209.43471495957414</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>214.04227868868477</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>218.38176598264715</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>222.46205687337556</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>226.29178342208175</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>229.87933608609032</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1085,54 +962,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37AC9F-09D0-C444-8146-7F5E99B763C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8329BC-5BDE-8C4F-9314-3072FED5892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="800" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="-18220" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>2019</t>
   </si>
@@ -142,6 +143,36 @@
   </si>
   <si>
     <t>euro/tCO2</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
   </si>
 </sst>
 </file>
@@ -304,13 +335,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AJ3" totalsRowShown="0">
-  <autoFilter ref="A1:AJ3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AS3" totalsRowShown="0">
+  <autoFilter ref="A1:AS3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
+    <tableColumn id="38" xr3:uid="{31B57C8C-0C7C-154A-B0F0-1948F53F4D7A}" name="2010"/>
+    <tableColumn id="39" xr3:uid="{8BFD5C3B-2E3C-F74B-9EC7-DAB43053B3B6}" name="2011"/>
+    <tableColumn id="40" xr3:uid="{B906DD8F-3734-EC4F-821D-AAC415BF977C}" name="2012"/>
+    <tableColumn id="41" xr3:uid="{B5B5BBF7-F34E-604A-AB57-3B556C5B1D59}" name="2013"/>
+    <tableColumn id="42" xr3:uid="{19031027-ABA2-BD4C-8117-6AE0F17DFA8F}" name="2014"/>
+    <tableColumn id="43" xr3:uid="{B6703332-BF05-0E42-BDF4-748827D17BDE}" name="2015"/>
+    <tableColumn id="44" xr3:uid="{F4902D1A-A9ED-F14A-934B-25443D02A3DF}" name="2016"/>
+    <tableColumn id="45" xr3:uid="{92B1B26F-51E9-9144-AFFF-EEE8CA6E3BEC}" name="2017"/>
+    <tableColumn id="46" xr3:uid="{3783918F-3893-874A-9B13-D4D1F8E5E802}" name="2018"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="30"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="29"/>
@@ -611,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -623,9 +663,10 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -639,103 +680,130 @@
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -844,8 +912,35 @@
       <c r="AJ2" s="1">
         <v>0</v>
       </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -952,6 +1047,33 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -962,4 +1084,22 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BA2592-DA46-8345-B3AF-6776A9780F4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8329BC-5BDE-8C4F-9314-3072FED5892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8592B4DB-2670-7548-A84E-8FE225358463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-180" yWindow="-18220" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>2019</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
+  </si>
+  <si>
+    <t>2051</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -335,9 +341,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AS3" totalsRowShown="0">
-  <autoFilter ref="A1:AS3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AT3" totalsRowShown="0">
+  <autoFilter ref="A1:AT3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
@@ -351,38 +357,39 @@
     <tableColumn id="44" xr3:uid="{F4902D1A-A9ED-F14A-934B-25443D02A3DF}" name="2016"/>
     <tableColumn id="45" xr3:uid="{92B1B26F-51E9-9144-AFFF-EEE8CA6E3BEC}" name="2017"/>
     <tableColumn id="46" xr3:uid="{3783918F-3893-874A-9B13-D4D1F8E5E802}" name="2018"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8D780864-D888-A648-921C-7F6063876797}" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -651,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -666,7 +673,7 @@
     <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -802,8 +809,11 @@
       <c r="AS1" t="s">
         <v>31</v>
       </c>
+      <c r="AT1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="AS2" s="1">
         <v>0</v>
       </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1074,6 +1087,9 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
         <v>0</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8592B4DB-2670-7548-A84E-8FE225358463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-18220" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="-18225" windowWidth="30240" windowHeight="17355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -181,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -220,16 +219,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -341,55 +341,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AT3" totalsRowShown="0">
-  <autoFilter ref="A1:AT3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT3" totalsRowShown="0">
+  <autoFilter ref="A1:AT3"/>
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
-    <tableColumn id="38" xr3:uid="{31B57C8C-0C7C-154A-B0F0-1948F53F4D7A}" name="2010"/>
-    <tableColumn id="39" xr3:uid="{8BFD5C3B-2E3C-F74B-9EC7-DAB43053B3B6}" name="2011"/>
-    <tableColumn id="40" xr3:uid="{B906DD8F-3734-EC4F-821D-AAC415BF977C}" name="2012"/>
-    <tableColumn id="41" xr3:uid="{B5B5BBF7-F34E-604A-AB57-3B556C5B1D59}" name="2013"/>
-    <tableColumn id="42" xr3:uid="{19031027-ABA2-BD4C-8117-6AE0F17DFA8F}" name="2014"/>
-    <tableColumn id="43" xr3:uid="{B6703332-BF05-0E42-BDF4-748827D17BDE}" name="2015"/>
-    <tableColumn id="44" xr3:uid="{F4902D1A-A9ED-F14A-934B-25443D02A3DF}" name="2016"/>
-    <tableColumn id="45" xr3:uid="{92B1B26F-51E9-9144-AFFF-EEE8CA6E3BEC}" name="2017"/>
-    <tableColumn id="46" xr3:uid="{3783918F-3893-874A-9B13-D4D1F8E5E802}" name="2018"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8D780864-D888-A648-921C-7F6063876797}" name="2051" dataDxfId="0"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="3" name="id_sector"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="38" name="2010"/>
+    <tableColumn id="39" name="2011"/>
+    <tableColumn id="40" name="2012"/>
+    <tableColumn id="41" name="2013"/>
+    <tableColumn id="42" name="2014"/>
+    <tableColumn id="43" name="2015"/>
+    <tableColumn id="44" name="2016"/>
+    <tableColumn id="45" name="2017"/>
+    <tableColumn id="46" name="2018"/>
+    <tableColumn id="6" name="2019" dataDxfId="32"/>
+    <tableColumn id="7" name="2020" dataDxfId="31"/>
+    <tableColumn id="8" name="2021" dataDxfId="30"/>
+    <tableColumn id="9" name="2022" dataDxfId="29"/>
+    <tableColumn id="10" name="2023" dataDxfId="28"/>
+    <tableColumn id="11" name="2024" dataDxfId="27"/>
+    <tableColumn id="12" name="2025" dataDxfId="26"/>
+    <tableColumn id="13" name="2026" dataDxfId="25"/>
+    <tableColumn id="14" name="2027" dataDxfId="24"/>
+    <tableColumn id="15" name="2028" dataDxfId="23"/>
+    <tableColumn id="16" name="2029" dataDxfId="22"/>
+    <tableColumn id="17" name="2030" dataDxfId="21"/>
+    <tableColumn id="18" name="2031" dataDxfId="20"/>
+    <tableColumn id="19" name="2032" dataDxfId="19"/>
+    <tableColumn id="20" name="2033" dataDxfId="18"/>
+    <tableColumn id="21" name="2034" dataDxfId="17"/>
+    <tableColumn id="22" name="2035" dataDxfId="16"/>
+    <tableColumn id="23" name="2036" dataDxfId="15"/>
+    <tableColumn id="24" name="2037" dataDxfId="14"/>
+    <tableColumn id="25" name="2038" dataDxfId="13"/>
+    <tableColumn id="26" name="2039" dataDxfId="12"/>
+    <tableColumn id="27" name="2040" dataDxfId="11"/>
+    <tableColumn id="28" name="2041" dataDxfId="10"/>
+    <tableColumn id="29" name="2042" dataDxfId="9"/>
+    <tableColumn id="30" name="2043" dataDxfId="8"/>
+    <tableColumn id="31" name="2044" dataDxfId="7"/>
+    <tableColumn id="32" name="2045" dataDxfId="6"/>
+    <tableColumn id="33" name="2046" dataDxfId="5"/>
+    <tableColumn id="34" name="2047" dataDxfId="4"/>
+    <tableColumn id="35" name="2048" dataDxfId="3"/>
+    <tableColumn id="36" name="2049" dataDxfId="2"/>
+    <tableColumn id="37" name="2050" dataDxfId="1"/>
+    <tableColumn id="4" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -657,23 +657,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2:AT3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -813,7 +813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -859,101 +859,101 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0</v>
+      <c r="P2" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>30</v>
+      </c>
+      <c r="R2" s="2">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2">
+        <v>45</v>
+      </c>
+      <c r="T2" s="2">
+        <v>55</v>
+      </c>
+      <c r="U2" s="2">
+        <v>57</v>
+      </c>
+      <c r="V2" s="2">
+        <v>60</v>
+      </c>
+      <c r="W2" s="2">
+        <v>62</v>
+      </c>
+      <c r="X2" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>83.808348127145933</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>86.158059642158435</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>88.433730600574123</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>90.641623163612849</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>92.787171856914142</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>94.875128470163503</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>96.909675952759088</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>98.894519037239718</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>100.83295714376011</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>102.72794361897078</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>104.58213431134067</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>106.39792773605862</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>108.17749854124806</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>109.92282559050837</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>111.63571568246282</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -999,98 +999,98 @@
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>0</v>
+      <c r="P3" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2">
+        <v>35</v>
+      </c>
+      <c r="S3" s="2">
+        <v>45</v>
+      </c>
+      <c r="T3" s="2">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2">
+        <v>57</v>
+      </c>
+      <c r="V3" s="2">
+        <v>60</v>
+      </c>
+      <c r="W3" s="2">
+        <v>62</v>
+      </c>
+      <c r="X3" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>83.808348127145933</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>86.158059642158435</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>88.433730600574123</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>90.641623163612849</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>92.787171856914142</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>94.875128470163503</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>96.909675952759088</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>98.894519037239718</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>100.83295714376011</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>102.72794361897078</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>104.58213431134067</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>106.39792773605862</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>108.17749854124806</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>109.92282559050837</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>111.63571568246282</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1103,14 +1103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BA2592-DA46-8345-B3AF-6776A9780F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>2019</t>
   </si>
@@ -171,19 +171,31 @@
     <t>2018</t>
   </si>
   <si>
-    <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
-  </si>
-  <si>
     <t>2051</t>
+  </si>
+  <si>
+    <t>note: scenarios differentiate after 2026.</t>
+  </si>
+  <si>
+    <t>assumption</t>
+  </si>
+  <si>
+    <t>average of 10 &amp; 30 after 2026</t>
+  </si>
+  <si>
+    <t>same as 1</t>
+  </si>
+  <si>
+    <t>same as "BEHG" (https://www.axpo.com/de/en/business/gas/behg.html)</t>
+  </si>
+  <si>
+    <t>a slight steady increase after the announced price corridor (until end of 2026)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,15 +231,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="42">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -322,10 +333,37 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -341,22 +379,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT3" totalsRowShown="0">
-  <autoFilter ref="A1:AT3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT9" totalsRowShown="0">
+  <autoFilter ref="A1:AT9"/>
   <tableColumns count="46">
     <tableColumn id="1" name="id_scenario"/>
     <tableColumn id="2" name="id_region"/>
     <tableColumn id="3" name="id_sector"/>
     <tableColumn id="5" name="unit"/>
-    <tableColumn id="38" name="2010"/>
-    <tableColumn id="39" name="2011"/>
-    <tableColumn id="40" name="2012"/>
-    <tableColumn id="41" name="2013"/>
-    <tableColumn id="42" name="2014"/>
-    <tableColumn id="43" name="2015"/>
-    <tableColumn id="44" name="2016"/>
-    <tableColumn id="45" name="2017"/>
-    <tableColumn id="46" name="2018"/>
+    <tableColumn id="38" name="2010" dataDxfId="41"/>
+    <tableColumn id="39" name="2011" dataDxfId="40"/>
+    <tableColumn id="40" name="2012" dataDxfId="39"/>
+    <tableColumn id="41" name="2013" dataDxfId="38"/>
+    <tableColumn id="42" name="2014" dataDxfId="37"/>
+    <tableColumn id="43" name="2015" dataDxfId="36"/>
+    <tableColumn id="44" name="2016" dataDxfId="35"/>
+    <tableColumn id="45" name="2017" dataDxfId="34"/>
+    <tableColumn id="46" name="2018" dataDxfId="33"/>
     <tableColumn id="6" name="2019" dataDxfId="32"/>
     <tableColumn id="7" name="2020" dataDxfId="31"/>
     <tableColumn id="8" name="2021" dataDxfId="30"/>
@@ -658,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2:AT3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +848,7 @@
         <v>31</v>
       </c>
       <c r="AT1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -859,97 +897,97 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>25</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>35</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>45</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>55</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>57</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>60</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>62</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>64</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>65</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>67</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>71</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>75</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>80</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>84</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>83.808348127145933</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>86.158059642158435</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="1">
         <v>88.433730600574123</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="1">
         <v>90.641623163612849</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="1">
         <v>92.787171856914142</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="1">
         <v>94.875128470163503</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="1">
         <v>96.909675952759088</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="1">
         <v>98.894519037239718</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2" s="1">
         <v>100.83295714376011</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="1">
         <v>102.72794361897078</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="1">
         <v>104.58213431134067</v>
       </c>
-      <c r="AP2" s="2">
-        <v>106.39792773605862</v>
-      </c>
-      <c r="AQ2" s="2">
+      <c r="AP2" s="1">
         <v>108.17749854124806</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AQ2" s="1">
         <v>109.92282559050837</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AR2" s="1">
         <v>111.63571568246282</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AS2" s="1">
+        <v>115</v>
+      </c>
+      <c r="AT2" s="1">
         <v>115</v>
       </c>
     </row>
@@ -999,97 +1037,937 @@
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>25</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>30</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>35</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>45</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>55</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>57</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>60</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>62</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>64</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>65</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>67</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>71</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>75</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="1">
         <v>80</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="1">
         <v>84</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="1">
         <v>83.808348127145933</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="1">
         <v>86.158059642158435</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="1">
         <v>88.433730600574123</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="1">
         <v>90.641623163612849</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="1">
         <v>92.787171856914142</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="1">
         <v>94.875128470163503</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="1">
         <v>96.909675952759088</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="1">
         <v>98.894519037239718</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="1">
         <v>100.83295714376011</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="1">
         <v>102.72794361897078</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="1">
         <v>104.58213431134067</v>
       </c>
-      <c r="AP3" s="2">
-        <v>106.39792773605862</v>
-      </c>
-      <c r="AQ3" s="2">
+      <c r="AP3" s="1">
         <v>108.17749854124806</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AQ3" s="1">
         <v>109.92282559050837</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AR3" s="1">
         <v>111.63571568246282</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AS3" s="1">
+        <v>115</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>35</v>
+      </c>
+      <c r="S4" s="1">
+        <v>45</v>
+      </c>
+      <c r="T4" s="1">
+        <v>55</v>
+      </c>
+      <c r="U4" s="1">
+        <v>57.095061376267388</v>
+      </c>
+      <c r="V4" s="1">
+        <v>68.86542787537482</v>
+      </c>
+      <c r="W4" s="1">
+        <v>80.142141689967445</v>
+      </c>
+      <c r="X4" s="1">
+        <v>90.940240780826201</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>101.27435905137465</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>111.15873649478881</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>120.60722909684587</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>129.63331850022271</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>138.25012143582575</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>146.47039892660456</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>154.3065652691779</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>161.77069679847767</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>168.87454044049778</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>175.62952205811769</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>182.04675459485659</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>188.13704602130269</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>193.91090708885301</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>199.37855889529283</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>204.54994026663948</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>209.43471495957414</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>214.04227868868477</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>218.38176598264715</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>222.46205687337556</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>226.29178342208175</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>229.87933608609032</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1">
+        <v>45</v>
+      </c>
+      <c r="T5" s="1">
+        <v>55</v>
+      </c>
+      <c r="U5" s="1">
+        <v>57.095061376267388</v>
+      </c>
+      <c r="V5" s="1">
+        <v>68.86542787537482</v>
+      </c>
+      <c r="W5" s="1">
+        <v>80.142141689967445</v>
+      </c>
+      <c r="X5" s="1">
+        <v>90.940240780826201</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>101.27435905137465</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>111.15873649478881</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>120.60722909684587</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>129.63331850022271</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>138.25012143582575</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>146.47039892660456</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>154.3065652691779</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>161.77069679847767</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>168.87454044049778</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>175.62952205811769</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>182.04675459485659</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>188.13704602130269</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>193.91090708885301</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>199.37855889529283</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>204.54994026663948</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>209.43471495957414</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>214.04227868868477</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>218.38176598264715</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>222.46205687337556</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>226.29178342208175</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>229.87933608609032</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1">
+        <v>35</v>
+      </c>
+      <c r="S6" s="1">
+        <v>45</v>
+      </c>
+      <c r="T6" s="1">
+        <v>55</v>
+      </c>
+      <c r="U6" s="1">
+        <v>57.047530688133691</v>
+      </c>
+      <c r="V6" s="1">
+        <v>64.43271393768741</v>
+      </c>
+      <c r="W6" s="1">
+        <v>71.071070844983723</v>
+      </c>
+      <c r="X6" s="1">
+        <v>77.470120390413101</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>83.137179525687316</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>89.079368247394399</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>95.803614548422928</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>102.31665925011136</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>109.12506071791287</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>115.23519946330228</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>119.05745669816191</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>123.96437822031805</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>128.65413552053596</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>133.13557261086527</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>137.41696322588535</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>141.50608724573311</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>145.41029152080606</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>149.13653896626627</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>152.6914487051998</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>156.08132928927245</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>159.31220650001273</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>163.2796322619476</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>166.19244123194196</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>168.96374955227228</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>172.43966804304517</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1">
+        <v>35</v>
+      </c>
+      <c r="S7" s="1">
+        <v>45</v>
+      </c>
+      <c r="T7" s="1">
+        <v>55</v>
+      </c>
+      <c r="U7" s="1">
+        <v>57.047530688133691</v>
+      </c>
+      <c r="V7" s="1">
+        <v>64.43271393768741</v>
+      </c>
+      <c r="W7" s="1">
+        <v>71.071070844983723</v>
+      </c>
+      <c r="X7" s="1">
+        <v>77.470120390413101</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>83.137179525687316</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>89.079368247394399</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>95.803614548422928</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>102.31665925011136</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>109.12506071791287</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>115.23519946330228</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>119.05745669816191</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>123.96437822031805</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>128.65413552053596</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>133.13557261086527</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>137.41696322588535</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>141.50608724573311</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>145.41029152080606</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>149.13653896626627</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>152.6914487051998</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>156.08132928927245</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>159.31220650001273</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>163.2796322619476</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>166.19244123194196</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>168.96374955227228</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>172.43966804304517</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1">
+        <v>35</v>
+      </c>
+      <c r="S8" s="1">
+        <v>45</v>
+      </c>
+      <c r="T8" s="1">
+        <v>55</v>
+      </c>
+      <c r="U8" s="1">
+        <v>57</v>
+      </c>
+      <c r="V8" s="1">
+        <v>60</v>
+      </c>
+      <c r="W8" s="1">
+        <v>62</v>
+      </c>
+      <c r="X8" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>67</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>71</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>83.808348127145933</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>86.158059642158435</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>88.433730600574123</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>90.641623163612849</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>92.787171856914142</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>94.875128470163503</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>96.909675952759088</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>98.894519037239718</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>100.83295714376011</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>102.72794361897078</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>104.58213431134067</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>108.17749854124806</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>109.92282559050837</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>111.63571568246282</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>115</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>30</v>
+      </c>
+      <c r="R9" s="1">
+        <v>35</v>
+      </c>
+      <c r="S9" s="1">
+        <v>45</v>
+      </c>
+      <c r="T9" s="1">
+        <v>55</v>
+      </c>
+      <c r="U9" s="1">
+        <v>57</v>
+      </c>
+      <c r="V9" s="1">
+        <v>60</v>
+      </c>
+      <c r="W9" s="1">
+        <v>62</v>
+      </c>
+      <c r="X9" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>65</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>67</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>71</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>80</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>84</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>83.808348127145933</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>86.158059642158435</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>88.433730600574123</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>90.641623163612849</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>92.787171856914142</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>94.875128470163503</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>96.909675952759088</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>98.894519037239718</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>100.83295714376011</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>102.72794361897078</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>104.58213431134067</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>108.17749854124806</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>109.92282559050837</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>111.63571568246282</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>115</v>
+      </c>
+      <c r="AT9" s="1">
         <v>115</v>
       </c>
     </row>
@@ -1104,15 +1982,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-18225" windowWidth="30240" windowHeight="17355"/>
+    <workbookView xWindow="-180" yWindow="-18230" windowWidth="30240" windowHeight="17360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>2019</t>
   </si>
@@ -172,24 +171,6 @@
   </si>
   <si>
     <t>2051</t>
-  </si>
-  <si>
-    <t>note: scenarios differentiate after 2026.</t>
-  </si>
-  <si>
-    <t>assumption</t>
-  </si>
-  <si>
-    <t>average of 10 &amp; 30 after 2026</t>
-  </si>
-  <si>
-    <t>same as 1</t>
-  </si>
-  <si>
-    <t>same as "BEHG" (https://www.axpo.com/de/en/business/gas/behg.html)</t>
-  </si>
-  <si>
-    <t>a slight steady increase after the announced price corridor (until end of 2026)</t>
   </si>
 </sst>
 </file>
@@ -379,8 +360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT9" totalsRowShown="0">
-  <autoFilter ref="A1:AT9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT3" totalsRowShown="0">
+  <autoFilter ref="A1:AT3"/>
   <tableColumns count="46">
     <tableColumn id="1" name="id_scenario"/>
     <tableColumn id="2" name="id_region"/>
@@ -696,22 +677,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -851,7 +832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -991,7 +972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1128,846 +1109,6 @@
         <v>115</v>
       </c>
       <c r="AT3" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>30</v>
-      </c>
-      <c r="R4" s="1">
-        <v>35</v>
-      </c>
-      <c r="S4" s="1">
-        <v>45</v>
-      </c>
-      <c r="T4" s="1">
-        <v>55</v>
-      </c>
-      <c r="U4" s="1">
-        <v>57.095061376267388</v>
-      </c>
-      <c r="V4" s="1">
-        <v>68.86542787537482</v>
-      </c>
-      <c r="W4" s="1">
-        <v>80.142141689967445</v>
-      </c>
-      <c r="X4" s="1">
-        <v>90.940240780826201</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>101.27435905137465</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>111.15873649478881</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>120.60722909684587</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>129.63331850022271</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>138.25012143582575</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>146.47039892660456</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>154.3065652691779</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>161.77069679847767</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>168.87454044049778</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>175.62952205811769</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>182.04675459485659</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>188.13704602130269</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>193.91090708885301</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>199.37855889529283</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>204.54994026663948</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>209.43471495957414</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>214.04227868868477</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>218.38176598264715</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>222.46205687337556</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>226.29178342208175</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>229.87933608609032</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>30</v>
-      </c>
-      <c r="R5" s="1">
-        <v>35</v>
-      </c>
-      <c r="S5" s="1">
-        <v>45</v>
-      </c>
-      <c r="T5" s="1">
-        <v>55</v>
-      </c>
-      <c r="U5" s="1">
-        <v>57.095061376267388</v>
-      </c>
-      <c r="V5" s="1">
-        <v>68.86542787537482</v>
-      </c>
-      <c r="W5" s="1">
-        <v>80.142141689967445</v>
-      </c>
-      <c r="X5" s="1">
-        <v>90.940240780826201</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>101.27435905137465</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>111.15873649478881</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>120.60722909684587</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>129.63331850022271</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>138.25012143582575</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>146.47039892660456</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>154.3065652691779</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>161.77069679847767</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>168.87454044049778</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>175.62952205811769</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>182.04675459485659</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>188.13704602130269</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>193.91090708885301</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>199.37855889529283</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>204.54994026663948</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>209.43471495957414</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>214.04227868868477</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>218.38176598264715</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>222.46205687337556</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>226.29178342208175</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>229.87933608609032</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>30</v>
-      </c>
-      <c r="R6" s="1">
-        <v>35</v>
-      </c>
-      <c r="S6" s="1">
-        <v>45</v>
-      </c>
-      <c r="T6" s="1">
-        <v>55</v>
-      </c>
-      <c r="U6" s="1">
-        <v>57.047530688133691</v>
-      </c>
-      <c r="V6" s="1">
-        <v>64.43271393768741</v>
-      </c>
-      <c r="W6" s="1">
-        <v>71.071070844983723</v>
-      </c>
-      <c r="X6" s="1">
-        <v>77.470120390413101</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>83.137179525687316</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>89.079368247394399</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>95.803614548422928</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>102.31665925011136</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>109.12506071791287</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>115.23519946330228</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>119.05745669816191</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>123.96437822031805</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>128.65413552053596</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>133.13557261086527</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>137.41696322588535</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>141.50608724573311</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>145.41029152080606</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>149.13653896626627</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>152.6914487051998</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>156.08132928927245</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>159.31220650001273</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>163.2796322619476</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>166.19244123194196</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>168.96374955227228</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>172.43966804304517</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>172.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>30</v>
-      </c>
-      <c r="R7" s="1">
-        <v>35</v>
-      </c>
-      <c r="S7" s="1">
-        <v>45</v>
-      </c>
-      <c r="T7" s="1">
-        <v>55</v>
-      </c>
-      <c r="U7" s="1">
-        <v>57.047530688133691</v>
-      </c>
-      <c r="V7" s="1">
-        <v>64.43271393768741</v>
-      </c>
-      <c r="W7" s="1">
-        <v>71.071070844983723</v>
-      </c>
-      <c r="X7" s="1">
-        <v>77.470120390413101</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>83.137179525687316</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>89.079368247394399</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>95.803614548422928</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>102.31665925011136</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>109.12506071791287</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>115.23519946330228</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>119.05745669816191</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>123.96437822031805</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>128.65413552053596</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>133.13557261086527</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>137.41696322588535</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>141.50608724573311</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>145.41029152080606</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>149.13653896626627</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>152.6914487051998</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>156.08132928927245</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>159.31220650001273</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>163.2796322619476</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>166.19244123194196</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>168.96374955227228</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>172.43966804304517</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>172.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>30</v>
-      </c>
-      <c r="R8" s="1">
-        <v>35</v>
-      </c>
-      <c r="S8" s="1">
-        <v>45</v>
-      </c>
-      <c r="T8" s="1">
-        <v>55</v>
-      </c>
-      <c r="U8" s="1">
-        <v>57</v>
-      </c>
-      <c r="V8" s="1">
-        <v>60</v>
-      </c>
-      <c r="W8" s="1">
-        <v>62</v>
-      </c>
-      <c r="X8" s="1">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>65</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>67</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>71</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>75</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>80</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>84</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>83.808348127145933</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>86.158059642158435</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>88.433730600574123</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>90.641623163612849</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>92.787171856914142</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>94.875128470163503</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>96.909675952759088</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>98.894519037239718</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>100.83295714376011</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>102.72794361897078</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>104.58213431134067</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>108.17749854124806</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>109.92282559050837</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>111.63571568246282</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>115</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>30</v>
-      </c>
-      <c r="R9" s="1">
-        <v>35</v>
-      </c>
-      <c r="S9" s="1">
-        <v>45</v>
-      </c>
-      <c r="T9" s="1">
-        <v>55</v>
-      </c>
-      <c r="U9" s="1">
-        <v>57</v>
-      </c>
-      <c r="V9" s="1">
-        <v>60</v>
-      </c>
-      <c r="W9" s="1">
-        <v>62</v>
-      </c>
-      <c r="X9" s="1">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>65</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>67</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>71</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>75</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>80</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>84</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>83.808348127145933</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>86.158059642158435</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>88.433730600574123</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>90.641623163612849</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>92.787171856914142</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>94.875128470163503</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>96.909675952759088</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>98.894519037239718</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>100.83295714376011</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>102.72794361897078</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>104.58213431134067</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>108.17749854124806</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>109.92282559050837</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>111.63571568246282</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>115</v>
-      </c>
-      <c r="AT9" s="1">
         <v>115</v>
       </c>
     </row>
@@ -1978,64 +1119,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_CO2Emission.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-18230" windowWidth="30240" windowHeight="17360"/>
+    <workbookView xWindow="-180" yWindow="-18225" windowWidth="30240" windowHeight="17355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>2019</t>
   </si>
@@ -171,6 +172,24 @@
   </si>
   <si>
     <t>2051</t>
+  </si>
+  <si>
+    <t>note: scenarios differentiate after 2026.</t>
+  </si>
+  <si>
+    <t>assumption</t>
+  </si>
+  <si>
+    <t>average of 10 &amp; 30 after 2026</t>
+  </si>
+  <si>
+    <t>same as 1</t>
+  </si>
+  <si>
+    <t>same as "BEHG" (https://www.axpo.com/de/en/business/gas/behg.html)</t>
+  </si>
+  <si>
+    <t>a slight steady increase after the announced price corridor (until end of 2026)</t>
   </si>
 </sst>
 </file>
@@ -360,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT3" totalsRowShown="0">
-  <autoFilter ref="A1:AT3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT9" totalsRowShown="0">
+  <autoFilter ref="A1:AT9"/>
   <tableColumns count="46">
     <tableColumn id="1" name="id_scenario"/>
     <tableColumn id="2" name="id_region"/>
@@ -677,22 +696,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -832,7 +851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -972,7 +991,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1109,6 +1128,846 @@
         <v>115</v>
       </c>
       <c r="AT3" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>35</v>
+      </c>
+      <c r="S4" s="1">
+        <v>45</v>
+      </c>
+      <c r="T4" s="1">
+        <v>55</v>
+      </c>
+      <c r="U4" s="1">
+        <v>57.095061376267388</v>
+      </c>
+      <c r="V4" s="1">
+        <v>68.86542787537482</v>
+      </c>
+      <c r="W4" s="1">
+        <v>80.142141689967445</v>
+      </c>
+      <c r="X4" s="1">
+        <v>90.940240780826201</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>101.27435905137465</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>111.15873649478881</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>120.60722909684587</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>129.63331850022271</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>138.25012143582575</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>146.47039892660456</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>154.3065652691779</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>161.77069679847767</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>168.87454044049778</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>175.62952205811769</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>182.04675459485659</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>188.13704602130269</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>193.91090708885301</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>199.37855889529283</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>204.54994026663948</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>209.43471495957414</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>214.04227868868477</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>218.38176598264715</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>222.46205687337556</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>226.29178342208175</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>229.87933608609032</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1">
+        <v>45</v>
+      </c>
+      <c r="T5" s="1">
+        <v>55</v>
+      </c>
+      <c r="U5" s="1">
+        <v>57.095061376267388</v>
+      </c>
+      <c r="V5" s="1">
+        <v>68.86542787537482</v>
+      </c>
+      <c r="W5" s="1">
+        <v>80.142141689967445</v>
+      </c>
+      <c r="X5" s="1">
+        <v>90.940240780826201</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>101.27435905137465</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>111.15873649478881</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>120.60722909684587</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>129.63331850022271</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>138.25012143582575</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>146.47039892660456</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>154.3065652691779</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>161.77069679847767</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>168.87454044049778</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>175.62952205811769</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>182.04675459485659</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>188.13704602130269</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>193.91090708885301</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>199.37855889529283</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>204.54994026663948</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>209.43471495957414</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>214.04227868868477</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>218.38176598264715</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>222.46205687337556</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>226.29178342208175</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>229.87933608609032</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1">
+        <v>35</v>
+      </c>
+      <c r="S6" s="1">
+        <v>45</v>
+      </c>
+      <c r="T6" s="1">
+        <v>55</v>
+      </c>
+      <c r="U6" s="1">
+        <v>57.047530688133691</v>
+      </c>
+      <c r="V6" s="1">
+        <v>64.43271393768741</v>
+      </c>
+      <c r="W6" s="1">
+        <v>71.071070844983723</v>
+      </c>
+      <c r="X6" s="1">
+        <v>77.470120390413101</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>83.137179525687316</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>89.079368247394399</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>95.803614548422928</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>102.31665925011136</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>109.12506071791287</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>115.23519946330228</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>119.05745669816191</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>123.96437822031805</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>128.65413552053596</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>133.13557261086527</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>137.41696322588535</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>141.50608724573311</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>145.41029152080606</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>149.13653896626627</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>152.6914487051998</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>156.08132928927245</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>159.31220650001273</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>163.2796322619476</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>166.19244123194196</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>168.96374955227228</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>172.43966804304517</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1">
+        <v>35</v>
+      </c>
+      <c r="S7" s="1">
+        <v>45</v>
+      </c>
+      <c r="T7" s="1">
+        <v>55</v>
+      </c>
+      <c r="U7" s="1">
+        <v>57.047530688133691</v>
+      </c>
+      <c r="V7" s="1">
+        <v>64.43271393768741</v>
+      </c>
+      <c r="W7" s="1">
+        <v>71.071070844983723</v>
+      </c>
+      <c r="X7" s="1">
+        <v>77.470120390413101</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>83.137179525687316</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>89.079368247394399</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>95.803614548422928</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>102.31665925011136</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>109.12506071791287</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>115.23519946330228</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>119.05745669816191</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>123.96437822031805</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>128.65413552053596</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>133.13557261086527</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>137.41696322588535</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>141.50608724573311</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>145.41029152080606</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>149.13653896626627</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>152.6914487051998</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>156.08132928927245</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>159.31220650001273</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>163.2796322619476</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>166.19244123194196</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>168.96374955227228</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>172.43966804304517</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1">
+        <v>35</v>
+      </c>
+      <c r="S8" s="1">
+        <v>45</v>
+      </c>
+      <c r="T8" s="1">
+        <v>55</v>
+      </c>
+      <c r="U8" s="1">
+        <v>57</v>
+      </c>
+      <c r="V8" s="1">
+        <v>60</v>
+      </c>
+      <c r="W8" s="1">
+        <v>62</v>
+      </c>
+      <c r="X8" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>67</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>71</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>83.808348127145933</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>86.158059642158435</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>88.433730600574123</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>90.641623163612849</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>92.787171856914142</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>94.875128470163503</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>96.909675952759088</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>98.894519037239718</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>100.83295714376011</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>102.72794361897078</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>104.58213431134067</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>108.17749854124806</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>109.92282559050837</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>111.63571568246282</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>115</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>30</v>
+      </c>
+      <c r="R9" s="1">
+        <v>35</v>
+      </c>
+      <c r="S9" s="1">
+        <v>45</v>
+      </c>
+      <c r="T9" s="1">
+        <v>55</v>
+      </c>
+      <c r="U9" s="1">
+        <v>57</v>
+      </c>
+      <c r="V9" s="1">
+        <v>60</v>
+      </c>
+      <c r="W9" s="1">
+        <v>62</v>
+      </c>
+      <c r="X9" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>65</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>67</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>71</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>80</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>84</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>83.808348127145933</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>86.158059642158435</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>88.433730600574123</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>90.641623163612849</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>92.787171856914142</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>94.875128470163503</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>96.909675952759088</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>98.894519037239718</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>100.83295714376011</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>102.72794361897078</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>104.58213431134067</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>108.17749854124806</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>109.92282559050837</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>111.63571568246282</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>115</v>
+      </c>
+      <c r="AT9" s="1">
         <v>115</v>
       </c>
     </row>
@@ -1119,4 +1978,64 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>